--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Reference</t>
   </si>
@@ -33,6 +33,9 @@
     <t xml:space="preserve"> Footprint</t>
   </si>
   <si>
+    <t xml:space="preserve"> Mouser Part Number</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1 </t>
   </si>
   <si>
@@ -42,9 +45,6 @@
     <t>Capacitor_SMD:C_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
   </si>
   <si>
-    <t xml:space="preserve">J1 </t>
-  </si>
-  <si>
     <t>Conn_01x04</t>
   </si>
   <si>
@@ -57,6 +57,9 @@
     <t>E-Switch</t>
   </si>
   <si>
+    <t>612-TL1017AABF260QG</t>
+  </si>
+  <si>
     <t xml:space="preserve">U1 </t>
   </si>
   <si>
@@ -66,41 +69,62 @@
     <t>Package_SO:SOIJ-8_5.3x5.3mm_P1.27mm</t>
   </si>
   <si>
+    <t xml:space="preserve">J1, J2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1, S2 </t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>556-ATTINY85-20SU</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>Tactile Buttons</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">S1, S2 </t>
-  </si>
-  <si>
-    <t>ATTINY85-20SU</t>
-  </si>
-  <si>
-    <t>Microchip</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Any 0805 100nF Ceramic Capcitor</t>
-  </si>
-  <si>
-    <t>Stack boards, not used.</t>
-  </si>
-  <si>
     <t>Part Number</t>
   </si>
   <si>
-    <t>SPST microswitches</t>
-  </si>
-  <si>
-    <t>Microcontroller</t>
+    <t>Amphenol FCI</t>
+  </si>
+  <si>
+    <t>68000-204HLF</t>
+  </si>
+  <si>
+    <t>649-68000-204HLF</t>
+  </si>
+  <si>
+    <t>Any 0805 Ceramic 100nF Capacitor</t>
+  </si>
+  <si>
+    <t>Kyocera AVX</t>
+  </si>
+  <si>
+    <t>08055C104K4Z4A</t>
+  </si>
+  <si>
+    <t>581-08055C104K4Z4A</t>
+  </si>
+  <si>
+    <t>Only J2 needs to be populated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,12 +259,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -424,13 +442,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,11 +628,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -936,128 +953,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
